--- a/game_results.xlsx
+++ b/game_results.xlsx
@@ -476,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
